--- a/biology/Botanique/Leptocorisa_acuta/Leptocorisa_acuta.xlsx
+++ b/biology/Botanique/Leptocorisa_acuta/Leptocorisa_acuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leptocorisa acuta[1],[2] est une espèce de punaises de la famille des Alydidae présente en Malésie ainsi que dans le nord de l'Australie et à Taïwan[3]. Son basionyme est Cimex acutus et elle est maintenant placée dans la famille des Alydidae. C'est l'une des nombreuses espèces de punaises du riz et elle peut être confondue avec Leptocorisa oratoria (en).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leptocorisa acuta, est une espèce de punaises de la famille des Alydidae présente en Malésie ainsi que dans le nord de l'Australie et à Taïwan. Son basionyme est Cimex acutus et elle est maintenant placée dans la famille des Alydidae. C'est l'une des nombreuses espèces de punaises du riz et elle peut être confondue avec Leptocorisa oratoria (en).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Statut de ravageur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces punaises peuvent constituer d'importants ravageurs du riz, car elles se nourrissent des grains en cours de développement (stade laiteux), ce qui réduit la qualité de la récolte et parfois le rendement. Les attaques se produisant peu avant la récolte, si les agriculteurs pulvérisent des insecticides pour tenter de contrôler l'infestation, ils risquent de laisser des résidus de pesticides nocifs sur la culture.
-Leptocorisa acuta est aussi un ravageur du sorgho, du mil et de l'éleusine en Asie[2].
+Leptocorisa acuta est aussi un ravageur du sorgho, du mil et de l'éleusine en Asie.
 </t>
         </is>
       </c>
